--- a/templates/template-auftragsbestaetigung_deu_v2.11.xlsx
+++ b/templates/template-auftragsbestaetigung_deu_v2.11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Datenbank\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\eclipse.workspace\facturaX\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94F1376-9FB2-4271-B124-C1428D334406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434F5BAF-4BF9-473A-AD1A-19FEB4E6C67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{BDB31136-F42A-43E6-B94C-7A1AD5286F65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">BIC:   </t>
   </si>
@@ -87,18 +87,6 @@
     <t>{Owner}</t>
   </si>
   <si>
-    <t>{A35}</t>
-  </si>
-  <si>
-    <t>{A38}</t>
-  </si>
-  <si>
-    <t>{A44}</t>
-  </si>
-  <si>
-    <t>{A47}</t>
-  </si>
-  <si>
     <t>{Sender}</t>
   </si>
   <si>
@@ -115,6 +103,21 @@
   </si>
   <si>
     <t xml:space="preserve">ANGEBOTS-REFERENZ:   </t>
+  </si>
+  <si>
+    <t>{AGB}</t>
+  </si>
+  <si>
+    <t>{DatumStart}</t>
+  </si>
+  <si>
+    <t>{Anrede}</t>
+  </si>
+  <si>
+    <t>{Dank}</t>
+  </si>
+  <si>
+    <t>{Kondition}</t>
   </si>
 </sst>
 </file>
@@ -509,6 +512,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -568,9 +574,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -926,10 +929,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A27" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -944,26 +947,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
       <c r="B2" s="25"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
@@ -976,73 +979,73 @@
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
-      <c r="B5" s="32" t="s">
-        <v>24</v>
+      <c r="B5" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="C5" s="23"/>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
-      <c r="B6" s="33"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="22"/>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
-      <c r="B7" s="33"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="22"/>
-      <c r="D7" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
+      <c r="D7" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
-      <c r="B8" s="33"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
-      <c r="B9" s="33"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="20"/>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="21"/>
       <c r="C10" s="20"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
@@ -1078,11 +1081,11 @@
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
@@ -1094,14 +1097,14 @@
       <c r="C16" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44" t="s">
+      <c r="E16" s="44"/>
+      <c r="F16" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="45"/>
+      <c r="G16" s="46"/>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
@@ -1214,70 +1217,97 @@
       <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="49"/>
+      <c r="D29" s="50"/>
       <c r="E29" s="9"/>
       <c r="F29" s="10"/>
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="7"/>
       <c r="F30" s="27"/>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
       <c r="E31" s="6"/>
       <c r="F31" s="27"/>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
       <c r="E32" s="5"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B35" s="52"/>
       <c r="C35" s="52"/>
       <c r="D35" s="52"/>
       <c r="E35" s="52"/>
       <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="26"/>
+      <c r="A36" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="52"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
+      <c r="A41" s="52"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B42" s="3"/>
@@ -1292,7 +1322,7 @@
     </row>
     <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="51" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -1307,45 +1337,62 @@
       <c r="F45" s="1"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="51" t="s">
+      <c r="A47" s="51"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="48"/>
+      <c r="E47" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C48" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="48"/>
+      <c r="E48" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C49" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="48"/>
+      <c r="E49" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="51"/>
-      <c r="C47" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="47"/>
-      <c r="E47" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C48" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="47"/>
-      <c r="E48" s="48" t="s">
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-    </row>
-    <row r="49" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C49" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="47"/>
-      <c r="E49" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="31">
+  <mergeCells count="37">
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B15:F15"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
     <mergeCell ref="C29:D29"/>
@@ -1356,16 +1403,9 @@
     <mergeCell ref="E47:G47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="E48:G48"/>
-    <mergeCell ref="A38:D38"/>
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="A52:F52"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B5:B9"/>
     <mergeCell ref="D5:E5"/>
@@ -1377,6 +1417,10 @@
     <mergeCell ref="C1:G2"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation allowBlank="1" sqref="C1 C3:E15 F3:F7 F9:F15 A1 B2:B15" xr:uid="{21824488-88C6-453E-8F38-8F58E590857F}"/>
